--- a/Graficos.xlsx
+++ b/Graficos.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos\docs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CD143-7788-4AD1-9ADD-C5C2A3D8C610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABF12B-8C8F-41D9-A1A7-ED2BFBBBE9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2CF0C49E-5595-4D77-BD80-669DF7CBEAAF}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>TAMAÑO DE LA LISTA</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Suma de TIEMPO</t>
   </si>
   <si>
-    <t>Ejercicio 1</t>
+    <t>Ejercicio 1 INSERIONSORT</t>
   </si>
   <si>
-    <t>Ejercicio 2</t>
+    <t>Ejercicio 2 BUBBLESORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -157,7 +160,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -166,14 +169,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,6 +244,484 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent2"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
@@ -400,13 +881,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.3101101E-3</c:v>
+                  <c:v>4.9901009999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9999485000000003E-3</c:v>
+                  <c:v>2.5000572E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0008506999999993E-3</c:v>
+                  <c:v>4.9993991999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.54998302E-2</c:v>
@@ -415,16 +896,16 @@
                   <c:v>3.7999868399999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5999736799999995E-2</c:v>
+                  <c:v>0.1070005894</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1539998055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39949989320000001</c:v>
+                  <c:v>0.27649903300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83999800680000003</c:v>
+                  <c:v>0.56349897380000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A92B-4DBE-BA89-6A1683CEDD9A}"/>
+              <c16:uniqueId val="{00000006-6B9B-46BB-9EB2-A343406C7E83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,7 +1142,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Graficos.xlsx]ej2!TablaDinámica5</c:name>
-    <c:fmtId val="0"/>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -854,31 +1335,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0013579999999999E-3</c:v>
+                  <c:v>3.8299927711000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5001507000000003E-3</c:v>
+                  <c:v>97.917306423200003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5014572000000005E-3</c:v>
+                  <c:v>400.94320750240001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7999887499999999E-2</c:v>
+                  <c:v>789.01799988749997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4998645800000001E-2</c:v>
+                  <c:v>1675.5449986458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8000536000000004E-2</c:v>
+                  <c:v>3729.6927675100001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1719996929</c:v>
+                  <c:v>7945.1719996928996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47699809069999999</c:v>
+                  <c:v>18629.219492399799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90249824519999999</c:v>
+                  <c:v>37256.987331345001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +1367,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A29D-4994-9B92-4C6CAFD21650}"/>
+              <c16:uniqueId val="{00000000-D917-402A-B673-1F2F543E6D87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -921,11 +1402,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82664016"/>
-        <c:axId val="82661104"/>
+        <c:axId val="1213976912"/>
+        <c:axId val="1213959024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82664016"/>
+        <c:axId val="1213976912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +1443,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82661104"/>
+        <c:crossAx val="1213959024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82661104"/>
+        <c:axId val="1213959024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1485,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82664016"/>
+        <c:crossAx val="1213976912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2215,23 +2696,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A438FE11-D025-9F9B-B4D9-31F880492A48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAFD3CD-69BE-F1F0-DEA8-13562E10FFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2734,48 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="USER" refreshedDate="44726.539975925923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{88FF892B-D24D-4CB7-9915-8024E5EC3957}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="USER" refreshedDate="44727.732800115744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{6C4328A3-6C27-44CE-994B-1D3D3B2DE716}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C3:D12" sheet="ej2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="TAMAÑO DE LA LISTA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000000" count="9">
+        <n v="10000"/>
+        <n v="50000"/>
+        <n v="100000"/>
+        <n v="200000"/>
+        <n v="500000"/>
+        <n v="1000000"/>
+        <n v="2000000"/>
+        <n v="5000000"/>
+        <n v="10000000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TIEMPO" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8299927711000001" maxValue="37256.987331345001" count="9">
+        <n v="3.8299927711000001"/>
+        <n v="97.917306423200003"/>
+        <n v="400.94320750240001"/>
+        <n v="789.01799988749997"/>
+        <n v="1675.5449986458"/>
+        <n v="3729.6927675100001"/>
+        <n v="7945.1719996928996"/>
+        <n v="18629.219492399799"/>
+        <n v="37256.987331345001"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="USER" refreshedDate="44727.736159143518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{88FF892B-D24D-4CB7-9915-8024E5EC3957}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C2:D11" sheet="ej1"/>
   </cacheSource>
@@ -2271,59 +2793,8 @@
         <n v="10000000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="TIEMPO" numFmtId="170">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3101101E-3" maxValue="0.83999800680000003" count="9">
-        <n v="1.3101101E-3"/>
-        <n v="3.9999485000000003E-3"/>
-        <n v="8.0008506999999993E-3"/>
-        <n v="1.54998302E-2"/>
-        <n v="3.7999868399999998E-2"/>
-        <n v="7.5999736799999995E-2"/>
-        <n v="0.1539998055"/>
-        <n v="0.39949989320000001"/>
-        <n v="0.83999800680000003"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="USER" refreshedDate="44726.559112152776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{6C4328A3-6C27-44CE-994B-1D3D3B2DE716}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C3:D12" sheet="ej2"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="TAMAÑO DE LA LISTA" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000000" count="9">
-        <n v="10000"/>
-        <n v="50000"/>
-        <n v="100000"/>
-        <n v="200000"/>
-        <n v="500000"/>
-        <n v="1000000"/>
-        <n v="2000000"/>
-        <n v="5000000"/>
-        <n v="10000000"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="TIEMPO" numFmtId="170">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0013579999999999E-3" maxValue="0.90249824519999999" count="9">
-        <n v="1.0013579999999999E-3"/>
-        <n v="4.5001507000000003E-3"/>
-        <n v="9.5014572000000005E-3"/>
-        <n v="1.7999887499999999E-2"/>
-        <n v="4.4998645800000001E-2"/>
-        <n v="8.8000536000000004E-2"/>
-        <n v="0.1719996929"/>
-        <n v="0.47699809069999999"/>
-        <n v="0.90249824519999999"/>
-      </sharedItems>
+    <cacheField name="TIEMPO" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9901009999999996E-4" maxValue="0.56349897380000002"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2379,45 +2850,45 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <n v="4.9901009999999996E-4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <n v="2.5000572E-3"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <n v="4.9993991999999999E-3"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
+    <n v="1.54998302E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
+    <n v="3.7999868399999998E-2"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="5"/>
+    <n v="0.1070005894"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="6"/>
+    <n v="0.1539998055"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="7"/>
+    <n v="0.27649903300000001"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="8"/>
+    <n v="0.56349897380000002"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62838D8-CE99-45DF-B0D1-3BEC03D68434}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E62838D8-CE99-45DF-B0D1-3BEC03D68434}" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F2:G12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2434,7 +2905,91 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="170" showAll="0">
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de TIEMPO" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15B1401D-0A32-48AC-9EFB-51E459518109}" name="TablaDinámica5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="F3:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
       <items count="10">
         <item x="0"/>
         <item x="1"/>
@@ -2491,104 +3046,7 @@
     <dataField name="Suma de TIEMPO" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15B1401D-0A32-48AC-9EFB-51E459518109}" name="TablaDinámica5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F3:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="170" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de TIEMPO" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2910,7 +3368,7 @@
   <dimension ref="A1:BN108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,17 +3385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2964,13 +3422,13 @@
         <v>10000</v>
       </c>
       <c r="D3" s="4">
-        <v>1.3101101E-3</v>
+        <v>4.9901009999999996E-4</v>
       </c>
       <c r="F3" s="6">
         <v>10000</v>
       </c>
       <c r="G3" s="7">
-        <v>1.3101101E-3</v>
+        <v>4.9901009999999996E-4</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -2981,13 +3439,13 @@
         <v>50000</v>
       </c>
       <c r="D4" s="4">
-        <v>3.9999485000000003E-3</v>
+        <v>2.5000572E-3</v>
       </c>
       <c r="F4" s="6">
         <v>50000</v>
       </c>
       <c r="G4" s="7">
-        <v>3.9999485000000003E-3</v>
+        <v>2.5000572E-3</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2998,13 +3456,13 @@
         <v>100000</v>
       </c>
       <c r="D5" s="4">
-        <v>8.0008506999999993E-3</v>
+        <v>4.9993991999999999E-3</v>
       </c>
       <c r="F5" s="6">
         <v>100000</v>
       </c>
       <c r="G5" s="7">
-        <v>8.0008506999999993E-3</v>
+        <v>4.9993991999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3049,13 +3507,13 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="4">
-        <v>7.5999736799999995E-2</v>
+        <v>0.1070005894</v>
       </c>
       <c r="F8" s="6">
         <v>1000000</v>
       </c>
       <c r="G8" s="7">
-        <v>7.5999736799999995E-2</v>
+        <v>0.1070005894</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -3083,13 +3541,13 @@
         <v>5000000</v>
       </c>
       <c r="D10" s="4">
-        <v>0.39949989320000001</v>
+        <v>0.27649903300000001</v>
       </c>
       <c r="F10" s="6">
         <v>5000000</v>
       </c>
       <c r="G10" s="7">
-        <v>0.39949989320000001</v>
+        <v>0.27649903300000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3100,13 +3558,13 @@
         <v>10000000</v>
       </c>
       <c r="D11" s="4">
-        <v>0.83999800680000003</v>
+        <v>0.56349897380000002</v>
       </c>
       <c r="F11" s="6">
         <v>10000000</v>
       </c>
       <c r="G11" s="7">
-        <v>0.83999800680000003</v>
+        <v>0.56349897380000002</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3117,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="7">
-        <v>1.5363080502000002</v>
+        <v>1.1624965668</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3688,7 @@
   <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3704,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="10"/>
@@ -3288,13 +3746,13 @@
         <v>10000</v>
       </c>
       <c r="D4" s="4">
-        <v>1.0013579999999999E-3</v>
+        <v>3.8299927711000001</v>
       </c>
       <c r="F4" s="6">
         <v>10000</v>
       </c>
       <c r="G4" s="7">
-        <v>1.0013579999999999E-3</v>
+        <v>3.8299927711000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -3305,13 +3763,13 @@
         <v>50000</v>
       </c>
       <c r="D5" s="4">
-        <v>4.5001507000000003E-3</v>
+        <v>97.917306423200003</v>
       </c>
       <c r="F5" s="6">
         <v>50000</v>
       </c>
       <c r="G5" s="7">
-        <v>4.5001507000000003E-3</v>
+        <v>97.917306423200003</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -3322,13 +3780,13 @@
         <v>100000</v>
       </c>
       <c r="D6" s="4">
-        <v>9.5014572000000005E-3</v>
+        <v>400.94320750240001</v>
       </c>
       <c r="F6" s="6">
         <v>100000</v>
       </c>
       <c r="G6" s="7">
-        <v>9.5014572000000005E-3</v>
+        <v>400.94320750240001</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -3339,13 +3797,13 @@
         <v>200000</v>
       </c>
       <c r="D7" s="4">
-        <v>1.7999887499999999E-2</v>
+        <v>789.01799988749997</v>
       </c>
       <c r="F7" s="6">
         <v>200000</v>
       </c>
       <c r="G7" s="7">
-        <v>1.7999887499999999E-2</v>
+        <v>789.01799988749997</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -3356,13 +3814,13 @@
         <v>500000</v>
       </c>
       <c r="D8" s="4">
-        <v>4.4998645800000001E-2</v>
+        <v>1675.5449986458</v>
       </c>
       <c r="F8" s="6">
         <v>500000</v>
       </c>
       <c r="G8" s="7">
-        <v>4.4998645800000001E-2</v>
+        <v>1675.5449986458</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -3373,13 +3831,13 @@
         <v>1000000</v>
       </c>
       <c r="D9" s="4">
-        <v>8.8000536000000004E-2</v>
+        <v>3729.6927675100001</v>
       </c>
       <c r="F9" s="6">
         <v>1000000</v>
       </c>
       <c r="G9" s="7">
-        <v>8.8000536000000004E-2</v>
+        <v>3729.6927675100001</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -3390,13 +3848,13 @@
         <v>2000000</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1719996929</v>
+        <v>7945.1719996928996</v>
       </c>
       <c r="F10" s="6">
         <v>2000000</v>
       </c>
       <c r="G10" s="7">
-        <v>0.1719996929</v>
+        <v>7945.1719996928996</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -3407,13 +3865,13 @@
         <v>5000000</v>
       </c>
       <c r="D11" s="4">
-        <v>0.47699809069999999</v>
+        <v>18629.219492399799</v>
       </c>
       <c r="F11" s="6">
         <v>5000000</v>
       </c>
       <c r="G11" s="7">
-        <v>0.47699809069999999</v>
+        <v>18629.219492399799</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -3424,13 +3882,13 @@
         <v>10000000</v>
       </c>
       <c r="D12" s="4">
-        <v>0.90249824519999999</v>
+        <v>37256.987331345001</v>
       </c>
       <c r="F12" s="6">
         <v>10000000</v>
       </c>
       <c r="G12" s="7">
-        <v>0.90249824519999999</v>
+        <v>37256.987331345001</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -3438,13 +3896,15 @@
         <v>4</v>
       </c>
       <c r="G13" s="7">
-        <v>1.7174980639999999</v>
+        <v>70528.325096177694</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3452,6 +3912,7 @@
     <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>